--- a/Aluguel/devolucoes/devolucao.xlsx
+++ b/Aluguel/devolucoes/devolucao.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Taxa (%a.a.)</t>
+          <t>Taxa</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -501,10 +501,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44531</v>
+        <v>44573</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44564</v>
+        <v>44624</v>
       </c>
       <c r="G2" t="n">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>20.31</v>
+        <v>24.92</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -537,27 +537,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ALSO3</t>
+          <t>BIDI11</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2021120100313890590001-2</t>
+          <t>2022011200324492260001-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>17524</v>
+        <v>11600</v>
       </c>
       <c r="M2" t="n">
-        <v>7924</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44531</v>
+        <v>44599</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UBS BRASIL CCTVM S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44564</v>
+        <v>44641</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>3.04</v>
+        <v>53.14</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -590,27 +590,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>BRKM5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2021120100304386740001-2</t>
+          <t>2022020700329218710001-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>2700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44519</v>
+        <v>44594</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44552</v>
+        <v>44636</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>13.76</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05</v>
+        <v>7.16</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CSAN3</t>
+          <t>CMIN3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2021111900311730900001-2</t>
+          <t>2022020200328266080001-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3900</v>
+        <v>24200</v>
       </c>
       <c r="M4" t="n">
-        <v>3900</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44519</v>
+        <v>44585</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44552</v>
+        <v>44627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05</v>
+        <v>21.02</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05</v>
+        <v>17.01</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -696,27 +696,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CSAN3</t>
+          <t>GOLL4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2021111900311606040001-2</t>
+          <t>2022012400326619290001-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2244</v>
+        <v>209</v>
       </c>
       <c r="M5" t="n">
-        <v>2244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44509</v>
+        <v>44565</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44550</v>
+        <v>44746</v>
       </c>
       <c r="G6" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>15.09</v>
+        <v>12.81</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -749,27 +749,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CYRE3</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2021110900314681690001-1</t>
+          <t>2022010400322937040001-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>27938</v>
+        <v>4100</v>
       </c>
       <c r="M6" t="n">
-        <v>8700</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44575</v>
+        <v>44714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>27.38</v>
+        <v>12.62</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>GGBR4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2021120300318543490001-1</t>
+          <t>2021120700318865590001-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>900</v>
+        <v>3600</v>
       </c>
       <c r="M7" t="n">
-        <v>900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44503</v>
+        <v>44537</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44544</v>
+        <v>44714</v>
       </c>
       <c r="G8" t="n">
-        <v>11.31</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>16.22</v>
+        <v>12.62</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>GOLL4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2021110300313922830001-1</t>
+          <t>2021120700318865610001-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>39180</v>
+        <v>1700</v>
       </c>
       <c r="M8" t="n">
-        <v>39180</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44503</v>
+        <v>44537</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44544</v>
+        <v>44714</v>
       </c>
       <c r="G9" t="n">
-        <v>11.31</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>16.22</v>
+        <v>12.62</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -908,27 +908,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>GOLL4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2021110300313925850001-1</t>
+          <t>2021120700318865620001-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>14666</v>
+        <v>1700</v>
       </c>
       <c r="M9" t="n">
-        <v>14666</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>BTG PACTUAL CTVM S/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44564</v>
+        <v>44714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>22.35</v>
+        <v>12.62</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -961,27 +961,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2021120100313834250001-2</t>
+          <t>2021120700318865630001-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>139</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>139</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44531</v>
+        <v>44599</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44564</v>
+        <v>44641</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>1.49</v>
       </c>
       <c r="H11" t="n">
-        <v>22.35</v>
+        <v>6.31</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1014,27 +1014,27 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>MGLU3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2021120100313834300001-2</t>
+          <t>2022020700329180690001-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8700</v>
+        <v>12095</v>
       </c>
       <c r="M11" t="n">
-        <v>8700</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44531</v>
+        <v>44592</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44564</v>
+        <v>44634</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
-        <v>22.35</v>
+        <v>45.57</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>SLCE3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2021120100313834350001-2</t>
+          <t>2022013100327858620001-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="M12" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44531</v>
+        <v>44599</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ITAU CV S/A</t>
+          <t>MERRILL LYNCH S/A CTVM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44564</v>
+        <v>44641</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H13" t="n">
-        <v>22.35</v>
+        <v>87.19</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1120,390 +1120,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>VALE3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2021120100313834430001-2</t>
+          <t>2022020700329218930001-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="M13" t="n">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ITAU CV S/A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44564</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ITUB4</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2021120100313834470001-2</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>7600</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>44537</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44579</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>LWSA3</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2021120700318949090001-1</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>54100</v>
-      </c>
-      <c r="M15" t="n">
-        <v>37100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>44524</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44575</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>PETZ3</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2021112400316909650001-1</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>2937</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>44524</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MERRILL LYNCH S/A CTVM</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44575</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>PETZ3</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2021112400316909660001-1</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>2324</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ITAU CV S/A</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44564</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="H18" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>PETZ3</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2021120100313890560001-2</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>126</v>
-      </c>
-      <c r="M18" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ITAU CV S/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44564</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>PETZ3</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2021120100313890600001-2</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>7984</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>44531</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>KAPITALO KAPPA MASTER FIM</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ITAU CV S/A</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44564</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>PRIO3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2021120100313890410001-2</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>38052</v>
-      </c>
-      <c r="M20" t="n">
-        <v>38052</v>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>
